--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shbharti/PycharmProjects/VMware/ISE-Vmware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1E89FD-0B47-1C43-B2A1-8058A060EE25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05363FA-2EF5-6846-8F65-E6D6A569BAE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5120" yWindow="1380" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{60FF38E9-85E2-5F48-83D4-54A95F0D875B}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="ASA Day 0" sheetId="2" r:id="rId1"/>
     <sheet name="ASA Day 1" sheetId="1" r:id="rId2"/>
     <sheet name="ISE" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>ESXi IP</t>
   </si>
@@ -104,12 +105,6 @@
     <t>OUTSIDE GW IP</t>
   </si>
   <si>
-    <t>AAA Port Group 1</t>
-  </si>
-  <si>
-    <t>MGMT Port Group 1</t>
-  </si>
-  <si>
     <t>VM Model</t>
   </si>
   <si>
@@ -125,9 +120,6 @@
     <t>NTP Server IP</t>
   </si>
   <si>
-    <t>Time Zone</t>
-  </si>
-  <si>
     <t>VPN Cluster IP</t>
   </si>
   <si>
@@ -140,9 +132,6 @@
     <t>VPN Cluster Key</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
     <t>Datacenter Name</t>
   </si>
   <si>
@@ -177,6 +166,45 @@
   </si>
   <si>
     <t>ucs12-ds2</t>
+  </si>
+  <si>
+    <t>AAA Port Group</t>
+  </si>
+  <si>
+    <t>MGMT Port Group</t>
+  </si>
+  <si>
+    <t>CORE-POD2-ISE</t>
+  </si>
+  <si>
+    <t>CORE-POD3-ISE</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>10.10.10.1</t>
+  </si>
+  <si>
+    <t>gdcsecurity.com</t>
+  </si>
+  <si>
+    <t>2.2.2.2</t>
+  </si>
+  <si>
+    <t>8.8.8.8</t>
+  </si>
+  <si>
+    <t>ghf</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>20.20.20.20</t>
+  </si>
+  <si>
+    <t>20.20.20.1</t>
   </si>
 </sst>
 </file>
@@ -547,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBD6F31-3815-0842-BABD-8C0B6BE5C7E5}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -669,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -688,19 +716,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77583555-86AF-B64B-B949-192D1853D062}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
@@ -717,31 +747,31 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -753,54 +783,148 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2">
         <v>3515</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
         <v>6.5</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3515</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>45</v>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227AEB6C-CB8D-884F-8D74-8A2BB4AB3865}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shbharti/PycharmProjects/VMware/ISE-Vmware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05363FA-2EF5-6846-8F65-E6D6A569BAE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ABBEE6-0CCE-ED41-95D9-7B7A325F220D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5120" yWindow="1380" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{60FF38E9-85E2-5F48-83D4-54A95F0D875B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>ESXi IP</t>
   </si>
@@ -162,9 +162,6 @@
     <t>CORE-POD1-ISE</t>
   </si>
   <si>
-    <t>CORE-POD6-ISE</t>
-  </si>
-  <si>
     <t>ucs12-ds2</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>255.255.255.0</t>
   </si>
   <si>
-    <t>10.10.10.1</t>
-  </si>
-  <si>
     <t>gdcsecurity.com</t>
   </si>
   <si>
@@ -205,6 +199,21 @@
   </si>
   <si>
     <t>20.20.20.1</t>
+  </si>
+  <si>
+    <t>Timezone</t>
+  </si>
+  <si>
+    <t>Asia/Calcutta</t>
+  </si>
+  <si>
+    <t>Cisco_Prod_10.105.197.0</t>
+  </si>
+  <si>
+    <t>10.105.197.111</t>
+  </si>
+  <si>
+    <t>10.105.197.1</t>
   </si>
 </sst>
 </file>
@@ -716,10 +725,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77583555-86AF-B64B-B949-192D1853D062}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -733,8 +742,8 @@
     <col min="8" max="8" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -742,7 +751,7 @@
     <col min="18" max="18" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1">
+    <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -768,10 +777,10 @@
         <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -797,10 +806,13 @@
       <c r="R1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2">
         <v>3515</v>
@@ -812,7 +824,7 @@
         <v>6.5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>34</v>
@@ -824,39 +836,42 @@
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
         <v>48</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="B3" s="2">
         <v>3515</v>
@@ -868,7 +883,7 @@
         <v>6.5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>34</v>
@@ -880,34 +895,37 @@
         <v>39</v>
       </c>
       <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
         <v>46</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
         <v>47</v>
       </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" t="s">
         <v>48</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
         <v>56</v>
-      </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shbharti/PycharmProjects/VMware/ISE-Vmware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ABBEE6-0CCE-ED41-95D9-7B7A325F220D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14766A78-B645-FF46-9F88-C167F2F04013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5120" yWindow="1380" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{60FF38E9-85E2-5F48-83D4-54A95F0D875B}"/>
   </bookViews>
@@ -204,9 +204,6 @@
     <t>Timezone</t>
   </si>
   <si>
-    <t>Asia/Calcutta</t>
-  </si>
-  <si>
     <t>Cisco_Prod_10.105.197.0</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>10.105.197.1</t>
+  </si>
+  <si>
+    <t>UTC</t>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77583555-86AF-B64B-B949-192D1853D062}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -836,19 +836,19 @@
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s">
         <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
         <v>48</v>
@@ -866,7 +866,7 @@
         <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -925,7 +925,7 @@
         <v>49</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
